--- a/BattleNoid_V2/Assets/Resources/Excel/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/Resources/Excel/PlayerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4F847-A656-49FC-A833-CC108B361CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E670DAC-924E-4E36-969E-748328F157FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>index</t>
   </si>
@@ -46,18 +46,6 @@
   </si>
   <si>
     <t>baseRange</t>
-  </si>
-  <si>
-    <t>additionalHp</t>
-  </si>
-  <si>
-    <t>additionalDamage</t>
-  </si>
-  <si>
-    <t>additionalMoveSpeed</t>
-  </si>
-  <si>
-    <t>additionalRange</t>
   </si>
   <si>
     <t>cost</t>
@@ -384,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,12 +384,10 @@
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,28 +412,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -462,18 +436,6 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
         <v>300</v>
       </c>
     </row>

--- a/BattleNoid_V2/Assets/Resources/Excel/PlayerData.xlsx
+++ b/BattleNoid_V2/Assets/Resources/Excel/PlayerData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Vampire\BattleNoid_V2\Assets\Resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\깃\Vampire_0403\BattleNoid_V2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E670DAC-924E-4E36-969E-748328F157FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>index</t>
   </si>
@@ -55,18 +54,41 @@
   </si>
   <si>
     <t>TestPlayer</t>
+  </si>
+  <si>
+    <t>111112A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111113A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -371,23 +393,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,7 +461,61 @@
         <v>300</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1500</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>130</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>